--- a/Bộ data demo/File dữ liệu input/data danh sách học sinh.xlsx
+++ b/Bộ data demo/File dữ liệu input/data danh sách học sinh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019_2020\HK2\TKPM\PROJECT\WEB\Bộ data demo\file dữ liệu input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019_2020\HK2\TKPM\PROJECT\WEB\QLHS\Bộ data demo\File dữ liệu input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC74EDD-688A-41F9-ABDD-75C085396EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CED38A1-BF2E-4C7F-B8E8-5027D626EE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Nguyễn Trần A</t>
-  </si>
-  <si>
     <t>nam</t>
   </si>
   <si>
@@ -69,37 +66,40 @@
     <t>Nguyễn Thị D</t>
   </si>
   <si>
-    <t>Nguyễn Trần An</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Anh</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Ân</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Bách</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Bảo</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Chi</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Dương</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Đạt</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Hải</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Hân</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Hòa</t>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn An</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Ân</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bách</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Chi</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dương</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Đạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hân</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hòa</t>
   </si>
 </sst>
 </file>
@@ -148,11 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,7 +440,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -455,7 +458,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -473,24 +476,24 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>37167</v>
@@ -499,26 +502,26 @@
         <v>987654321</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>987654321</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>987654321</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -531,26 +534,26 @@
         <v>987654321</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>987654321</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3">
         <v>987654321</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -563,26 +566,26 @@
         <v>987654321</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>987654321</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4">
         <v>987654321</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -595,26 +598,26 @@
         <v>987654321</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>987654321</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5">
         <v>987654321</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -627,26 +630,26 @@
         <v>987654321</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>987654321</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6">
         <v>987654321</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -659,26 +662,26 @@
         <v>987654321</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>987654321</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7">
         <v>987654321</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -691,26 +694,26 @@
         <v>987654321</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>987654321</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8">
         <v>987654321</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -723,26 +726,26 @@
         <v>987654321</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>987654321</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9">
         <v>987654321</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -755,26 +758,26 @@
         <v>987654321</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>987654321</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10">
         <v>987654321</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -787,26 +790,26 @@
         <v>987654321</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>987654321</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11">
         <v>987654321</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -819,26 +822,26 @@
         <v>987654321</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>987654321</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12">
         <v>987654321</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -851,19 +854,19 @@
         <v>987654321</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13">
         <v>987654321</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13">
         <v>987654321</v>
